--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>488198.4606919049</v>
+        <v>484996.1116731551</v>
       </c>
     </row>
     <row r="7">
@@ -26320,40 +26320,40 @@
         <v>532529.620166075</v>
       </c>
       <c r="E2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="F2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="G2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="H2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="I2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="J2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="K2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="L2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="M2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="N2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="O2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="P2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="F4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="G4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="H4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="I4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="J4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="K4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="L4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="M4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="N4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="O4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="P4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47029.37483115614</v>
+        <v>46502.0296171098</v>
       </c>
       <c r="C6" t="n">
-        <v>47029.37483115614</v>
+        <v>46502.0296171098</v>
       </c>
       <c r="D6" t="n">
-        <v>47029.37483115614</v>
+        <v>46502.0296171098</v>
       </c>
       <c r="E6" t="n">
-        <v>-51491.83203479469</v>
+        <v>-51804.33951378547</v>
       </c>
       <c r="F6" t="n">
-        <v>81608.16796520537</v>
+        <v>81295.66048621453</v>
       </c>
       <c r="G6" t="n">
-        <v>81608.16796520537</v>
+        <v>81295.66048621453</v>
       </c>
       <c r="H6" t="n">
-        <v>81608.16796520537</v>
+        <v>81295.66048621453</v>
       </c>
       <c r="I6" t="n">
-        <v>81608.16796520537</v>
+        <v>81295.66048621453</v>
       </c>
       <c r="J6" t="n">
-        <v>81608.16796520537</v>
+        <v>81295.66048621453</v>
       </c>
       <c r="K6" t="n">
-        <v>81608.16796520537</v>
+        <v>81295.66048621453</v>
       </c>
       <c r="L6" t="n">
-        <v>81608.16796520537</v>
+        <v>81295.66048621453</v>
       </c>
       <c r="M6" t="n">
-        <v>81608.16796520537</v>
+        <v>81295.66048621453</v>
       </c>
       <c r="N6" t="n">
-        <v>81608.16796520537</v>
+        <v>81295.66048621453</v>
       </c>
       <c r="O6" t="n">
-        <v>81608.16796520537</v>
+        <v>81295.66048621453</v>
       </c>
       <c r="P6" t="n">
-        <v>81608.16796520537</v>
+        <v>81295.66048621453</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>484996.1116731551</v>
+        <v>498722.4698105732</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660748</v>
       </c>
       <c r="D2" t="n">
         <v>532529.620166075</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46502.0296171098</v>
+        <v>46502.0296171099</v>
       </c>
       <c r="C6" t="n">
-        <v>46502.0296171098</v>
+        <v>46502.02961710966</v>
       </c>
       <c r="D6" t="n">
-        <v>46502.0296171098</v>
+        <v>46502.02961710978</v>
       </c>
       <c r="E6" t="n">
-        <v>-51804.33951378547</v>
+        <v>-51804.33951378553</v>
       </c>
       <c r="F6" t="n">
         <v>81295.66048621453</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>498722.4698105732</v>
+        <v>414937.0680489487</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>532529.620166075</v>
+      </c>
+      <c r="C2" t="n">
         <v>532529.6201660751</v>
       </c>
-      <c r="C2" t="n">
-        <v>532529.6201660748</v>
-      </c>
       <c r="D2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="E2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="F2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="G2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="H2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="I2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="J2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="K2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="L2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="M2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="N2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="O2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="P2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46502.0296171099</v>
+        <v>46457.89383842865</v>
       </c>
       <c r="C6" t="n">
-        <v>46502.02961710966</v>
+        <v>46457.89383842877</v>
       </c>
       <c r="D6" t="n">
-        <v>46502.02961710978</v>
+        <v>46457.89383842877</v>
       </c>
       <c r="E6" t="n">
-        <v>-51804.33951378553</v>
+        <v>-66614.35635289938</v>
       </c>
       <c r="F6" t="n">
-        <v>81295.66048621453</v>
+        <v>66485.64364710069</v>
       </c>
       <c r="G6" t="n">
-        <v>81295.66048621453</v>
+        <v>66485.64364710069</v>
       </c>
       <c r="H6" t="n">
-        <v>81295.66048621453</v>
+        <v>66485.64364710069</v>
       </c>
       <c r="I6" t="n">
-        <v>81295.66048621453</v>
+        <v>66485.64364710069</v>
       </c>
       <c r="J6" t="n">
-        <v>81295.66048621453</v>
+        <v>66485.64364710069</v>
       </c>
       <c r="K6" t="n">
-        <v>81295.66048621453</v>
+        <v>66485.64364710069</v>
       </c>
       <c r="L6" t="n">
-        <v>81295.66048621453</v>
+        <v>66485.64364710069</v>
       </c>
       <c r="M6" t="n">
-        <v>81295.66048621453</v>
+        <v>66485.64364710069</v>
       </c>
       <c r="N6" t="n">
-        <v>81295.66048621453</v>
+        <v>66485.64364710069</v>
       </c>
       <c r="O6" t="n">
-        <v>81295.66048621453</v>
+        <v>66485.64364710069</v>
       </c>
       <c r="P6" t="n">
-        <v>81295.66048621453</v>
+        <v>66485.64364710069</v>
       </c>
     </row>
   </sheetData>
